--- a/biology/Zoologie/Cepaea_vindobonensis/Cepaea_vindobonensis.xlsx
+++ b/biology/Zoologie/Cepaea_vindobonensis/Cepaea_vindobonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caucasotachea vindobonensis est une espèce de mollusques gastéropodes de la famille des hélicidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille de cette espèce mesure 17 à 21 mm de hauteur et 20 à 25 mm de diamètre. Elle est globuleuse et constituée de 5,5 à 6 tours de spire. Elle est blanchâtre ou jaune terne avec de fines et assez régulières stries d'accroissement et jusqu'à cinq bandes brunes (les deux supérieures étant souvent étroites).
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet escargot se rencontre sur les buissons des vallées chaudes.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple l'Allemagne orientale (haute vallée de l'Elbe jusque Meissen au nord).
 </t>
@@ -604,7 +622,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kerney M.P. &amp; Cameron R.A.D. (1979) A Field Guide to the Land Snails of Britain and North-west Europe. Collins, London, 288 p.</t>
         </is>
